--- a/predictions_on_test.xlsx
+++ b/predictions_on_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>label</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Negative Predictive Value</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>index</t>
@@ -889,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -902,13 +899,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -24933,10 +24930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24944,7 +24941,7 @@
     <col min="1" max="1" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -24953,7 +24950,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -24962,7 +24959,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -24971,18 +24968,13 @@
         <v>0.98404255319148937</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <f>SUM(Sheet1!F2:F801)/(SUM(Sheet1!F2:F801)+SUM(Sheet1!H2:H801))</f>
         <v>0.92924528301886788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
